--- a/biology/Zoologie/Catonephele_numilia/Catonephele_numilia.xlsx
+++ b/biology/Zoologie/Catonephele_numilia/Catonephele_numilia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catonephele numilia ou Cordonnier grec[réf. nécessaire] est une espèce de papillons de la famille des Nymphalidae, sous famille des Biblidinae et genre Catonephele.
 </t>
@@ -511,46 +523,119 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catonephele numilia a été décrit par Pieter Cramer en 1776 sous le nom de Papilio numilia[1].
-Sous-espèces
-Catonephele numilia numilia (Cramer, 1776); présent au Suriname.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catonephele numilia a été décrit par Pieter Cramer en 1776 sous le nom de Papilio numilia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Catonephele_numilia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catonephele_numilia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Catonephele numilia numilia (Cramer, 1776); présent au Suriname.
 Catonephele numilia esite (Felder, 1869); présent au Mexique, au Venezuela, en Colombie, en Équateur et à Trinité-et-Tobago.
 Catonephele numilia immaculata (Jenkins, 1985); présent au Mexique.
 Catonephele numilia neogermanica (Stichel, 1899);présent au Paraguay et au Brésil.
-Catonephele numilia penthia (Hewitson, 1852); présent au Brésil[1].
-Noms vernaculaires
-Catonephele numilia se nomme Cordonnier grec[réf. nécessaire] en français et Shoemaker Butterfly en anglais.
+Catonephele numilia penthia (Hewitson, 1852); présent au Brésil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catonephele_numilia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catonephele_numilia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catonephele numilia se nomme Cordonnier grec[réf. nécessaire] en français et Shoemaker Butterfly en anglais.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Catonephele_numilia</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Catonephele_numilia</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Catonephele numilia est un grand papillon aux ailes antérieures à bord externe concave qui présente un grand dimorphisme sexuel. Chez le mâle le dessus est de couleur noire orné de grosses taches orange deux aux ailes antérieures et une à l'aire basale des ailes postérieure.
 Le revers est beige avec aux ailes antérieures une grande plage basale et discale jaune.
@@ -558,68 +643,109 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Catonephele_numilia</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Catonephele_numilia</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont Alchornea costaricensis et Alchornea latifolia[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Alchornea costaricensis et Alchornea latifolia.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Catonephele_numilia</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Catonephele_numilia</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catonephele antinoe est présent au Mexique, au Venezuela, en Colombie, en Équateur, à Trinité-et-Tobago, au Paraguay, au Brésil, au Suriname et en Guyane[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catonephele antinoe est présent au Mexique, au Venezuela, en Colombie, en Équateur, à Trinité-et-Tobago, au Paraguay, au Brésil, au Suriname et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Catonephele_numilia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catonephele_numilia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
